--- a/resultados/resultados_221210.xlsx
+++ b/resultados/resultados_221210.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufranca/Documents/Dropbox/other_projects/FIA-Ajepi/Mundial2022/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A15BC40-A9AD-6F47-9E44-F57C44480208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11817DF8-7D04-9E4A-99C2-E2B1AF77EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="500" windowWidth="26480" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="500" windowWidth="26480" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="A325" sqref="A325:E341"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="B326" sqref="B326:B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8606,7 +8606,7 @@
         <v>19</v>
       </c>
       <c r="B325">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C325">
         <v>2</v>
@@ -8619,36 +8619,44 @@
         <f>3*F325+G325</f>
         <v>0</v>
       </c>
-      <c r="F325" s="3"/>
-      <c r="G325" s="3"/>
+      <c r="F325" s="3">
+        <v>0</v>
+      </c>
+      <c r="G325" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>5</v>
       </c>
       <c r="B326">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C326">
         <v>2</v>
       </c>
       <c r="D326">
         <f t="shared" ref="D326:D341" si="40">D309+E326</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E326">
         <f t="shared" ref="E326:E331" si="41">3*F326+G326</f>
-        <v>0</v>
-      </c>
-      <c r="F326" s="3"/>
-      <c r="G326" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="F326" s="3">
+        <v>1</v>
+      </c>
+      <c r="G326" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>22</v>
       </c>
       <c r="B327">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C327">
         <v>2</v>
@@ -8661,57 +8669,69 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F327" s="3"/>
-      <c r="G327" s="3"/>
+      <c r="F327" s="3">
+        <v>0</v>
+      </c>
+      <c r="G327" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>23</v>
       </c>
       <c r="B328">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C328">
         <v>2</v>
       </c>
       <c r="D328">
         <f t="shared" si="40"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E328">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F328" s="3"/>
-      <c r="G328" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F328" s="3">
+        <v>0</v>
+      </c>
+      <c r="G328" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>6</v>
       </c>
       <c r="B329">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C329">
         <v>2</v>
       </c>
       <c r="D329">
         <f t="shared" si="40"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E329">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F329" s="3"/>
-      <c r="G329" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="F329" s="3">
+        <v>0</v>
+      </c>
+      <c r="G329" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>20</v>
       </c>
       <c r="B330">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C330">
         <v>2</v>
@@ -8724,71 +8744,87 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="F330" s="3"/>
-      <c r="G330" s="3"/>
+      <c r="F330" s="3">
+        <v>0</v>
+      </c>
+      <c r="G330" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>21</v>
       </c>
       <c r="B331">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C331">
         <v>2</v>
       </c>
       <c r="D331">
         <f t="shared" si="40"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E331">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="F331" s="3"/>
-      <c r="G331" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="F331" s="3">
+        <v>1</v>
+      </c>
+      <c r="G331" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>7</v>
       </c>
       <c r="B332">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C332">
         <v>2</v>
       </c>
       <c r="D332">
         <f t="shared" si="40"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E332">
         <f>3*F332+G332</f>
-        <v>0</v>
-      </c>
-      <c r="F332" s="3"/>
-      <c r="G332" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="F332" s="3">
+        <v>1</v>
+      </c>
+      <c r="G332" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>8</v>
       </c>
       <c r="B333">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C333">
         <v>2</v>
       </c>
       <c r="D333">
         <f t="shared" si="40"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E333">
         <f t="shared" ref="E333:E341" si="42">3*F333+G333</f>
-        <v>0</v>
-      </c>
-      <c r="F333" s="3"/>
-      <c r="G333" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="F333" s="3">
+        <v>1</v>
+      </c>
+      <c r="G333" s="3">
+        <v>0</v>
+      </c>
       <c r="H333" s="3"/>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -8796,18 +8832,24 @@
         <v>9</v>
       </c>
       <c r="B334">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C334">
         <v>2</v>
       </c>
       <c r="D334">
         <f t="shared" si="40"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E334">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F334" s="3">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
@@ -8815,7 +8857,7 @@
         <v>18</v>
       </c>
       <c r="B335">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C335">
         <v>2</v>
@@ -8828,13 +8870,19 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
+      <c r="F335" s="3">
+        <v>0</v>
+      </c>
+      <c r="G335" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>10</v>
       </c>
       <c r="B336">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C336">
         <v>2</v>
@@ -8847,133 +8895,169 @@
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F336" s="3">
+        <v>0</v>
+      </c>
+      <c r="G336" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>11</v>
       </c>
       <c r="B337">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C337">
         <v>2</v>
       </c>
       <c r="D337">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E337">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+      <c r="G337" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>12</v>
       </c>
       <c r="B338">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C338">
         <v>2</v>
       </c>
       <c r="D338">
         <f t="shared" si="40"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E338">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>13</v>
       </c>
       <c r="B339">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C339">
         <v>2</v>
       </c>
       <c r="D339">
         <f t="shared" si="40"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E339">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>14</v>
       </c>
       <c r="B340">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C340">
         <v>2</v>
       </c>
       <c r="D340">
         <f t="shared" si="40"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E340">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F340" s="3">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>15</v>
       </c>
       <c r="B341">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C341">
         <v>2</v>
       </c>
       <c r="D341">
         <f t="shared" si="40"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E341">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F341" s="3">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
